--- a/biology/Médecine/Jean-Charles_Hachet/Jean-Charles_Hachet.xlsx
+++ b/biology/Médecine/Jean-Charles_Hachet/Jean-Charles_Hachet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles Hachet est un médecin et un critique d'art.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,16 +553,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecine
-Le Dr Hachet a été le premier à introduire l'oxyologie (médecine d'urgence) en milieu professionnel[1]. Il a mené des études approfondies sur les accidents en milieu du travail et mis en place des plans d'action et d'intervention adaptés aux différents types d'entreprise.
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dr Hachet a été le premier à introduire l'oxyologie (médecine d'urgence) en milieu professionnel. Il a mené des études approfondies sur les accidents en milieu du travail et mis en place des plans d'action et d'intervention adaptés aux différents types d'entreprise.
 Ses travaux récompensés par le prix Jansen de l'Académie nationale de médecine en 1981, ont été publiés en 1982 dans l'ouvrage Urgence en Médecine du travail.
 Le Docteur Jean-Charles Hachet est l’auteur en collaboration avec le Professeur Jean-Pierre Fréjaville d'un dictionnaire des Pathologies Professionnelles et de Médecine du travail (Maloine Editeur). L’ouvrage a été couronné par le prix Charles Achard décerné par l’Académie nationale de médecine.
 Il conduit également des recherches en toxicologie dans l’industrie.
 Ses travaux donnent lieu en 1988 à la parution de son ouvrage principal Toxicologie d’urgence qui sera traduit en 1997 en portugais et diffusé au Brésil et au Portugal.
-Arts
-Jean-Charles Hachet est également écrivain et historien d'art, spécialisé dans la sculpture[2].
-Cette passion pour l’Art lui a valu d’être deux fois lauréat de l’Académie des Beaux-Arts dont prix Thorlet en 2005, Grand Prix de littérature Marcel Sandoz et de recevoir la médaille du Salon National des Antiquaires. Ses ouvrages sur la sculpture sont également traduits à l’étranger.
-Il est à l'origine de la réalisation du Centaure de bronze de 5 mètres installé devant le Cadre noir de Saumur le 1er octobre 2011[3],[4].
 </t>
         </is>
       </c>
@@ -574,10 +589,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vie privée</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Charles Hachet est également écrivain et historien d'art, spécialisé dans la sculpture.
+Cette passion pour l’Art lui a valu d’être deux fois lauréat de l’Académie des Beaux-Arts dont prix Thorlet en 2005, Grand Prix de littérature Marcel Sandoz et de recevoir la médaille du Salon National des Antiquaires. Ses ouvrages sur la sculpture sont également traduits à l’étranger.
+Il est à l'origine de la réalisation du Centaure de bronze de 5 mètres installé devant le Cadre noir de Saumur le 1er octobre 2011,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,10 +628,40 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Charles_Hachet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Charles_Hachet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Urgence en Médecine du travail, Masson-collection des Abrégés, 1982 (réédité en 1996)
 Dictionnaire des pathologies professionnelles et de médecine du travail, Maloine, 1988
@@ -618,31 +676,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jean-Charles_Hachet</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Charles_Hachet</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Articles médicaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>« Brûlures par les produits chimiques », Concours médical,‎ 1983
 « La fiche de liaison », Concours médical,‎ novembre 1983
@@ -657,31 +717,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jean-Charles_Hachet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Charles_Hachet</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Articles d'art</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>« L’Art de César », L’Art Contemporain,‎ 1986
 « Les bronzes animaliers : Maîtres et chefs-d’œuvre », Cote des antiquités,‎ 1988
